--- a/Base.xlsx
+++ b/Base.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodro\Google Drive\Academia\Investigaciones\01-.- Distr Indices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodro\Documents\R\DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B256D335-332C-43EE-994C-DA4C9BAD409F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623FAE74-0564-4667-B33C-BB7A3B98DBD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Datos!$A$1:$F$3198</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Datos!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -430,7 +430,7 @@
   <dimension ref="A1:F3198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2:F3198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -61707,8 +61707,8 @@
       <c r="B3064">
         <v>2945.3500979999999</v>
       </c>
-      <c r="C3064" t="e">
-        <v>#N/A</v>
+      <c r="C3064">
+        <v>1560.19</v>
       </c>
       <c r="D3064">
         <v>43743.71875</v>
@@ -61807,8 +61807,8 @@
       <c r="B3069">
         <v>2964.330078</v>
       </c>
-      <c r="C3069" t="e">
-        <v>#N/A</v>
+      <c r="C3069">
+        <v>1548.98</v>
       </c>
       <c r="D3069">
         <v>43438.238280999998</v>
@@ -61864,8 +61864,8 @@
       <c r="A3072" s="1">
         <v>43650</v>
       </c>
-      <c r="B3072" t="e">
-        <v>#N/A</v>
+      <c r="B3072">
+        <v>2995.820068</v>
       </c>
       <c r="C3072">
         <v>1565.96</v>
@@ -62033,8 +62033,8 @@
       <c r="D3080">
         <v>42984.96875</v>
       </c>
-      <c r="E3080" t="e">
-        <v>#N/A</v>
+      <c r="E3080">
+        <v>5076.43</v>
       </c>
       <c r="F3080">
         <v>20805.87</v>
